--- a/excel/SampleUploadQTDaoTaoBoiDuong.xlsx
+++ b/excel/SampleUploadQTDaoTaoBoiDuong.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GIT/namgold/gen-tool/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thesis\gen-tool\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6B912F-D28C-C549-B8A3-B0B594AB8C51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76697E7C-A61F-4CB4-AA72-30A927DB4ED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15120" xr2:uid="{8623719B-AAD2-DD4E-9018-285135024114}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8623719B-AAD2-DD4E-9018-285135024114}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t xml:space="preserve"> SHCC</t>
   </si>
@@ -69,9 +69,6 @@
     <t>GHI_CHU</t>
   </si>
   <si>
-    <t>NGAY_NHAP_HS</t>
-  </si>
-  <si>
     <t>3754/QĐ-ĐHBK-TCHC</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>2120A/QĐ-ĐHBK-TCHC</t>
   </si>
   <si>
-    <t>22/08/2016</t>
-  </si>
-  <si>
     <t>Đại học Quốc Gia</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>558/QĐ-ĐHBK-TCHC</t>
   </si>
   <si>
-    <t>14/03/2016</t>
-  </si>
-  <si>
     <t>Trường Quân sự TP.HCM</t>
   </si>
   <si>
@@ -151,14 +142,18 @@
   </si>
   <si>
     <t>DEN_THANG_NAM</t>
+  </si>
+  <si>
+    <t>003493</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d;@"/>
+    <numFmt numFmtId="165" formatCode="m/yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -189,18 +184,12 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -230,26 +219,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -259,13 +236,22 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -582,410 +568,375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5C489C-2A14-BF4E-8F3A-D6FB2DA52BE0}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="46.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="20.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5" style="7" customWidth="1"/>
-    <col min="17" max="16384" width="9.1640625" style="7"/>
+    <col min="1" max="1" width="6.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>1900</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="2">
+        <v>43079</v>
+      </c>
+      <c r="D2" s="7">
+        <v>43009</v>
+      </c>
+      <c r="E2" s="7">
+        <v>43070</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5">
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2">
+        <v>42738</v>
+      </c>
+      <c r="D3" s="7">
+        <v>42795</v>
+      </c>
+      <c r="E3" s="7">
+        <v>42856</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
         <v>43079</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D4" s="7">
+        <v>43009</v>
+      </c>
+      <c r="E4" s="7">
+        <v>43070</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="6">
-        <v>43772</v>
-      </c>
-      <c r="N2" s="11">
-        <v>44121</v>
-      </c>
-      <c r="O2" s="11">
-        <v>44122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5">
-        <v>42738</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="6">
-        <v>43772</v>
-      </c>
-      <c r="N3" s="11">
-        <v>44122</v>
-      </c>
-      <c r="O3" s="11">
-        <v>44123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43079</v>
+      </c>
+      <c r="D6" s="7">
+        <v>43009</v>
+      </c>
+      <c r="E6" s="7">
+        <v>43070</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5">
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2">
+        <v>42604</v>
+      </c>
+      <c r="D7" s="7">
+        <v>42583</v>
+      </c>
+      <c r="E7" s="7">
+        <v>42614</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43106</v>
+      </c>
+      <c r="D8" s="7">
+        <v>43101</v>
+      </c>
+      <c r="E8" s="7">
+        <v>43101</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2">
         <v>43079</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D9" s="7">
+        <v>43009</v>
+      </c>
+      <c r="E9" s="7">
+        <v>43070</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="6">
-        <v>43772</v>
-      </c>
-      <c r="N4" s="11">
-        <v>44123</v>
-      </c>
-      <c r="O4" s="11">
-        <v>44124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5">
-        <v>42738</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="6">
-        <v>43772</v>
-      </c>
-      <c r="N5" s="11">
-        <v>44124</v>
-      </c>
-      <c r="O5" s="11">
-        <v>44125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2">
+        <v>42443</v>
+      </c>
+      <c r="D10" s="7">
+        <v>42430</v>
+      </c>
+      <c r="E10" s="7">
+        <v>42430</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43079</v>
+      </c>
+      <c r="D11" s="7">
+        <v>43009</v>
+      </c>
+      <c r="E11" s="7">
+        <v>43070</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5">
-        <v>43079</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="6">
-        <v>43772</v>
-      </c>
-      <c r="N6" s="11">
-        <v>44125</v>
-      </c>
-      <c r="O6" s="11">
-        <v>44126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="6">
-        <v>43772</v>
-      </c>
-      <c r="N7" s="11">
-        <v>44126</v>
-      </c>
-      <c r="O7" s="11">
-        <v>44127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="5">
-        <v>43106</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="6">
-        <v>43772</v>
-      </c>
-      <c r="N8" s="11">
-        <v>44127</v>
-      </c>
-      <c r="O8" s="11">
-        <v>44128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="5">
-        <v>43079</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="6">
-        <v>43772</v>
-      </c>
-      <c r="N9" s="11">
-        <v>44128</v>
-      </c>
-      <c r="O9" s="11">
-        <v>44129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="6">
-        <v>43772</v>
-      </c>
-      <c r="N10" s="11">
-        <v>44129</v>
-      </c>
-      <c r="O10" s="11">
-        <v>44130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="5">
-        <v>43079</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="6">
-        <v>43772</v>
-      </c>
-      <c r="N11" s="11">
-        <v>44130</v>
-      </c>
-      <c r="O11" s="11">
-        <v>44131</v>
-      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:N1 A6:C6 A3:B3 A2:C2 F2:N2 F3:N3 A8:C8 A7:C7 F7:N7 A4:C4 F4:N4 A5:B5 F5:N5 F6:N6 A10:C10 A9:C9 F9:N9 A11:C11 F11:N11 F8:N8 F10:N10" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>